--- a/assets/StructureDefinition-hn-basis-appointment.xlsx
+++ b/assets/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
